--- a/data/demo_data/big_five/map.xlsx
+++ b/data/demo_data/big_five/map.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\demo_data\big_five\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21644DD-B5EA-40ED-9B8E-429F72046421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="29265" yWindow="330" windowWidth="27240" windowHeight="19065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -325,8 +336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +400,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,9 +486,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,6 +538,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,14 +731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -699,7 +754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -707,7 +762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -715,7 +770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -723,7 +778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -731,7 +786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -739,7 +794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -747,7 +802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -755,7 +810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -763,7 +818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -771,7 +826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -779,7 +834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -787,7 +842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -795,7 +850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -803,7 +858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -811,7 +866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -819,7 +874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -827,7 +882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -835,7 +890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -843,7 +898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -851,7 +906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -859,7 +914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -867,7 +922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -875,7 +930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -883,7 +938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -891,7 +946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -899,7 +954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -907,7 +962,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -915,7 +970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -923,7 +978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -931,7 +986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -939,7 +994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -947,7 +1002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -955,7 +1010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -963,7 +1018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -971,7 +1026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -979,7 +1034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -987,7 +1042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -995,7 +1050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1003,7 +1058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1011,7 +1066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1019,7 +1074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1027,7 +1082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1035,7 +1090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1043,7 +1098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1051,7 +1106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1059,7 +1114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1067,7 +1122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1075,7 +1130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
